--- a/application/controllers/excel-templates/missing_sf_pincode.xlsx
+++ b/application/controllers/excel-templates/missing_sf_pincode.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C50444-12A9-4096-AEED-A570960EE89C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9495" xr2:uid="{BCEF8997-77FD-411E-A997-17C6EBD561AD}"/>
   </bookViews>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pincode</t>
   </si>
   <si>
-    <t>Pending_booking_count</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -45,9 +43,6 @@
   </si>
   <si>
     <t>{order:pincode}</t>
-  </si>
-  <si>
-    <t>{order:pincodeCount}</t>
   </si>
   <si>
     <t>{order:city}</t>
@@ -129,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office विषयवस्तु">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,24 +420,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694C6217-1555-414E-9DEF-C07118457997}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -458,33 +452,27 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
